--- a/miRNA classification/miRNAconservation.xlsx
+++ b/miRNA classification/miRNAconservation.xlsx
@@ -4284,7 +4284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B402"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
@@ -7103,7 +7103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
